--- a/data/trans_camb/P2C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,34</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,03; 21,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 9,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; -7,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,44; 30,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,72; 17,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,48; -5,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,77; 23,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 11,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,86; -8,2</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,7%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,91; 132,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,79; 57,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,0; -39,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,61; 169,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,33; 93,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,83; -29,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,47; 131,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,79; 60,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,63; -42,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,89; 14,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 14,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,05; -11,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,75; 20,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 11,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,13; -27,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,34; 16,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,24; 12,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,93; -20,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,38%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,91; 51,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,23; 50,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,62; -42,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,04; 42,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 24,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,22; -54,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,11; 43,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,4; 32,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,16; -52,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,78</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-36,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,54; 24,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 6,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,23; -29,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,45; 27,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 12,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,18; -32,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,15; 24,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 7,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,98; -32,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,17%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,2; 46,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; 11,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,02; -55,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,18; 49,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 22,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,04; -56,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,89; 44,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 13,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,49; -58,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,4; 26,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 4,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,3; -16,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,17; 25,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 11,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,49; -7,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,84; 23,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 6,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,78; -13,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,37%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,55; 89,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,94; 17,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,23; -54,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,96; 115,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 52,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,75; -32,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,09; 90,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 22,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,99; -48,47</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,88</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,38; 20,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 5,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; 0,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 10,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 0,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,66; -4,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,7; 13,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 1,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,76; -3,15</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,39%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,69%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,39%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,69%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,11%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,11; 226,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,64; 62,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,01; 8,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 64,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,79; 3,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,8; -27,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,14; 99,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,26; 14,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,08; -23,16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,96</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,75</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,9; 19,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 5,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,06; 2,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 14,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 5,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,17; 62,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 14,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 3,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 51,47</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,52%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,07%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,88%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,29%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,62; 235,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,22; 70,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,97; 27,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,85; 95,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,73; 34,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,39; 430,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,97; 119,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,31; 31,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,61; 374,96</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,42</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,3; 23,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 11,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,93; 5,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,58; 30,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,26; 21,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,72; 14,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,34; 26,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 15,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 9,48</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,52%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,82%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,79%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,74; 126,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,99; 60,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,74; 30,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,64; 166,26</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,2; 111,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,51; 76,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,85; 131,71</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,8; 80,87</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 49,11</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>15,62</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-17,22</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>17,06</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-13,16</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>16,36</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-15,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>13,37; 17,95</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 4,51</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-20,27; -15,13</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 19,47</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 6,38</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-18,43; -0,03</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>14,77; 18,16</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 4,67</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-18,18; -7,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>53,58%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-59,07%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>49,4%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-38,12%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>51,32%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-47,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>44,03; 63,77</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 16,23</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-68,59; -54,22</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>40,18; 57,83</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 19,03</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-52,74; 0,86</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>45,14; 58,5</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 14,9</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-56,58; -22,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 21,04</t>
+          <t>9,59; 21,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,4</t>
+          <t>-1,46; 9,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -7,75</t>
+          <t>-16,96; -7,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,44; 30,79</t>
+          <t>18,27; 30,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 17,07</t>
+          <t>5,3; 17,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -5,79</t>
+          <t>-16,61; -5,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,77; 23,95</t>
+          <t>15,82; 24,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 11,21</t>
+          <t>3,31; 11,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -8,2</t>
+          <t>-15,97; -8,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,91; 132,04</t>
+          <t>42,75; 128,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 57,05</t>
+          <t>-6,83; 57,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,0; -39,45</t>
+          <t>-80,81; -39,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,61; 169,91</t>
+          <t>76,25; 164,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,33; 93,87</t>
+          <t>21,38; 88,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,83; -29,05</t>
+          <t>-71,41; -28,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,47; 131,62</t>
+          <t>72,61; 129,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,79; 60,96</t>
+          <t>15,0; 62,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-73,63; -42,45</t>
+          <t>-73,64; -45,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 14,3</t>
+          <t>4,77; 14,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 14,06</t>
+          <t>3,35; 13,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,05; -11,93</t>
+          <t>-22,86; -12,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 20,78</t>
+          <t>9,3; 21,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 11,99</t>
+          <t>1,3; 12,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,13; -27,24</t>
+          <t>-41,29; -27,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 16,32</t>
+          <t>8,53; 16,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 12,2</t>
+          <t>4,19; 12,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-28,93; -20,31</t>
+          <t>-28,77; -20,24</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,91; 51,69</t>
+          <t>14,83; 54,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 50,93</t>
+          <t>10,8; 51,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,62; -42,9</t>
+          <t>-72,17; -42,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 42,88</t>
+          <t>17,28; 44,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 24,31</t>
+          <t>2,39; 25,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,22; -54,9</t>
+          <t>-78,27; -55,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,11; 43,9</t>
+          <t>20,53; 43,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 32,4</t>
+          <t>10,26; 32,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,16; -52,79</t>
+          <t>-71,39; -53,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,54; 24,2</t>
+          <t>13,75; 23,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,09</t>
+          <t>-5,24; 6,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,23; -29,45</t>
+          <t>-40,33; -29,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 27,36</t>
+          <t>17,68; 27,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 12,28</t>
+          <t>1,45; 11,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,18; -32,4</t>
+          <t>-43,38; -32,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 24,32</t>
+          <t>17,12; 24,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 7,4</t>
+          <t>-0,26; 7,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-39,98; -32,13</t>
+          <t>-40,17; -32,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,2; 46,49</t>
+          <t>23,24; 45,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 11,53</t>
+          <t>-9,06; 11,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,02; -55,89</t>
+          <t>-69,86; -55,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,18; 49,05</t>
+          <t>28,81; 49,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 22,25</t>
+          <t>2,46; 21,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,04; -56,45</t>
+          <t>-71,33; -56,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,89; 44,06</t>
+          <t>28,8; 44,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 13,41</t>
+          <t>-0,47; 13,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,49; -58,1</t>
+          <t>-69,14; -58,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,4; 26,08</t>
+          <t>13,64; 25,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 4,71</t>
+          <t>-7,39; 3,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,3; -16,69</t>
+          <t>-30,34; -16,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,17; 25,46</t>
+          <t>14,08; 25,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 11,22</t>
+          <t>0,76; 11,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -7,1</t>
+          <t>-15,98; -7,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,8</t>
+          <t>15,84; 23,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 6,1</t>
+          <t>-1,72; 5,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,78; -13,26</t>
+          <t>-23,01; -13,49</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>41,55; 89,67</t>
+          <t>38,32; 88,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 17,06</t>
+          <t>-20,8; 12,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-87,23; -54,17</t>
+          <t>-86,47; -52,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,96; 115,61</t>
+          <t>51,9; 116,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 52,04</t>
+          <t>3,06; 51,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,75; -32,17</t>
+          <t>-56,51; -31,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,09; 90,78</t>
+          <t>50,81; 89,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 22,47</t>
+          <t>-5,49; 21,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-74,99; -48,47</t>
+          <t>-76,4; -49,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,38; 20,74</t>
+          <t>9,66; 21,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,85</t>
+          <t>-3,67; 6,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,68</t>
+          <t>-7,62; 0,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 10,39</t>
+          <t>-0,76; 10,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 0,6</t>
+          <t>-9,41; 0,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -4,3</t>
+          <t>-13,06; -4,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,59</t>
+          <t>5,81; 14,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,93</t>
+          <t>-5,08; 1,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -3,15</t>
+          <t>-8,85; -3,08</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>61,11; 226,33</t>
+          <t>65,14; 225,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 62,29</t>
+          <t>-25,6; 67,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 8,64</t>
+          <t>-51,45; 8,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 64,75</t>
+          <t>-5,12; 63,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 3,94</t>
+          <t>-43,79; 5,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,8; -27,06</t>
+          <t>-58,56; -26,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>33,14; 99,8</t>
+          <t>35,58; 106,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 14,29</t>
+          <t>-29,64; 12,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,08; -23,16</t>
+          <t>-50,93; -22,55</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,9; 19,25</t>
+          <t>7,56; 19,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,31</t>
+          <t>-4,16; 5,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 2,11</t>
+          <t>-6,96; 1,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,43; 14,03</t>
+          <t>2,47; 14,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 5,17</t>
+          <t>-6,79; 4,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 62,29</t>
+          <t>-6,8; 57,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,38; 14,98</t>
+          <t>6,16; 14,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,9</t>
+          <t>-3,84; 3,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 51,47</t>
+          <t>-5,3; 45,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>52,62; 235,56</t>
+          <t>54,29; 233,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 70,8</t>
+          <t>-32,94; 67,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 27,67</t>
+          <t>-48,1; 22,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,85; 95,92</t>
+          <t>13,17; 102,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 34,43</t>
+          <t>-33,28; 32,27</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 430,37</t>
+          <t>-38,05; 403,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>38,97; 119,41</t>
+          <t>36,65; 121,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 31,61</t>
+          <t>-23,26; 28,91</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 374,96</t>
+          <t>-35,63; 345,6</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>6,3; 23,4</t>
+          <t>6,32; 22,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 11,48</t>
+          <t>-3,28; 12,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 5,6</t>
+          <t>-8,2; 4,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16,58; 30,99</t>
+          <t>16,6; 31,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,26; 21,06</t>
+          <t>7,07; 21,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,72; 14,49</t>
+          <t>3,23; 14,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>15,34; 26,07</t>
+          <t>15,2; 26,48</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,92; 15,7</t>
+          <t>4,99; 15,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,48</t>
+          <t>0,42; 9,38</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>25,74; 126,12</t>
+          <t>24,47; 130,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 60,81</t>
+          <t>-13,3; 66,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 30,07</t>
+          <t>-31,49; 25,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>61,64; 166,26</t>
+          <t>62,84; 162,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>23,2; 111,89</t>
+          <t>27,73; 114,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>9,51; 76,77</t>
+          <t>12,42; 76,61</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>57,85; 131,71</t>
+          <t>58,58; 132,28</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>18,8; 80,87</t>
+          <t>20,01; 79,3</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2,98; 49,11</t>
+          <t>1,49; 48,22</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,95</t>
+          <t>13,19; 17,96</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,51</t>
+          <t>-0,14; 4,29</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-20,27; -15,13</t>
+          <t>-20,26; -15,32</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>14,45; 19,47</t>
+          <t>14,81; 19,48</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,38</t>
+          <t>2,01; 6,67</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -0,03</t>
+          <t>-18,38; 2,2</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>14,77; 18,16</t>
+          <t>14,47; 18,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,67</t>
+          <t>1,58; 4,92</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -7,18</t>
+          <t>-18,13; -6,23</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>44,03; 63,77</t>
+          <t>42,97; 63,68</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 16,23</t>
+          <t>-0,4; 15,29</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-68,59; -54,22</t>
+          <t>-67,55; -53,93</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>40,18; 57,83</t>
+          <t>40,97; 58,15</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,78; 19,03</t>
+          <t>5,62; 20,09</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 0,86</t>
+          <t>-52,56; 6,55</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>45,14; 58,5</t>
+          <t>44,71; 58,58</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>3,98; 14,9</t>
+          <t>4,83; 15,87</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -22,66</t>
+          <t>-56,45; -19,62</t>
         </is>
       </c>
     </row>
